--- a/manager-charlie-prototype/Assets/_Home/DataResources/QnATable/QnAData.xlsx
+++ b/manager-charlie-prototype/Assets/_Home/DataResources/QnATable/QnAData.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Home\DataResources\Contents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workSpace\manager-charlie\manager-charlie-prototype\Assets\_Home\DataResources\QnATable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contents2" sheetId="2" r:id="rId2"/>
+    <sheet name="Contents3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +231,226 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toothbrush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toothpaste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hairdryer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shampoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunacan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picturebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magazine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legoblocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wirehangers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperbag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glassbottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plastic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi,hello,hey,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how are you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how's it going?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>what's up?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nice to meet you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nice to see you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good to see you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm good,I'm happy,great</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you too,it is nice to meet you too,it is good to see you too</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>misterre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1049,4 +1271,643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="15.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>